--- a/data.xlsx
+++ b/data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="武将数据" sheetId="7" r:id="rId1"/>
     <sheet name="战法数据" sheetId="8" r:id="rId2"/>
     <sheet name="兵书数据" sheetId="9" r:id="rId3"/>
     <sheet name="宝物数据" sheetId="10" r:id="rId4"/>
+    <sheet name="队伍数据" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">武将数据!$A$2:$AP$102</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="842">
   <si>
     <t>挫锐</t>
   </si>
@@ -3097,6 +3098,64 @@
     <t>|左慈</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>兵种</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>武將1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武將2</t>
+  </si>
+  <si>
+    <t>武將3</t>
+  </si>
+  <si>
+    <t>战法2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵书1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞统</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙权</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁肃</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>周泰</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>马超</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3106,7 +3165,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -3177,8 +3236,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3203,6 +3267,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3222,7 +3304,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3336,6 +3418,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4187,11 +4278,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AP104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D84" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V93" sqref="V93"/>
+      <selection pane="bottomRight" sqref="A1:X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12433,10 +12524,10 @@
   <dimension ref="A1:AG254"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K210" sqref="K210"/>
+      <selection pane="bottomRight" activeCell="E104" sqref="E104:E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -20804,4 +20895,264 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="20" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="21">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21">
+        <v>2</v>
+      </c>
+      <c r="C1" s="21">
+        <v>3</v>
+      </c>
+      <c r="D1" s="21">
+        <v>4</v>
+      </c>
+      <c r="E1" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1" s="21">
+        <v>6</v>
+      </c>
+      <c r="G1" s="21">
+        <v>7</v>
+      </c>
+      <c r="H1" s="21">
+        <v>8</v>
+      </c>
+      <c r="I1" s="21">
+        <v>9</v>
+      </c>
+      <c r="J1" s="21">
+        <v>10</v>
+      </c>
+      <c r="K1" s="21">
+        <v>11</v>
+      </c>
+      <c r="L1" s="21">
+        <v>12</v>
+      </c>
+      <c r="M1" s="21">
+        <v>13</v>
+      </c>
+      <c r="N1" s="21">
+        <v>14</v>
+      </c>
+      <c r="O1" s="21">
+        <v>15</v>
+      </c>
+      <c r="P1" s="21">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="21">
+        <v>17</v>
+      </c>
+      <c r="R1" s="21">
+        <v>18</v>
+      </c>
+      <c r="S1" s="21">
+        <v>19</v>
+      </c>
+      <c r="T1" s="21">
+        <v>20</v>
+      </c>
+      <c r="U1" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>828</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>831</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>832</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>829</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>831</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>832</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>830</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q2" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>832</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="U2" s="21"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>587</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="I3" t="s">
+        <v>833</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="O3" t="s">
+        <v>834</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="I4" t="s">
+        <v>836</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="O4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>838</v>
+      </c>
+      <c r="C5" t="s">
+        <v>839</v>
+      </c>
+      <c r="I5" t="s">
+        <v>840</v>
+      </c>
+      <c r="O5" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>